--- a/report/テーブル一覧.xlsx
+++ b/report/テーブル一覧.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="3750" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="ACC_TBL" sheetId="2" r:id="rId1"/>
+    <sheet name="修正履歴" sheetId="3" r:id="rId1"/>
+    <sheet name="ACC_TBL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ACC_TBL!$A$1:$AF$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ACC_TBL!$A$1:$AF$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">修正履歴!$A$1:$AC$25</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="2">
@@ -192,6 +194,41 @@
   </si>
   <si>
     <t>ISSMINI</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>修正日</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>修正シート</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>修正者</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>修正内容</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -574,7 +611,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -651,6 +688,81 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -660,79 +772,64 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="7" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="7" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="7" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1040,9 +1137,801 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="3.75" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="19.5" thickBot="1"/>
+    <row r="2" spans="1:28">
+      <c r="A2" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="24"/>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="54">
+        <v>1</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="60"/>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="61">
+        <v>2</v>
+      </c>
+      <c r="B4" s="62"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="64"/>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="54">
+        <v>3</v>
+      </c>
+      <c r="B5" s="62"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
+      <c r="AA5" s="57"/>
+      <c r="AB5" s="64"/>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="61">
+        <v>4</v>
+      </c>
+      <c r="B6" s="65"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="59"/>
+      <c r="AB6" s="60"/>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="54">
+        <v>5</v>
+      </c>
+      <c r="B7" s="62"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="59"/>
+      <c r="AA7" s="59"/>
+      <c r="AB7" s="60"/>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="61">
+        <v>6</v>
+      </c>
+      <c r="B8" s="62"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="64"/>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="54">
+        <v>7</v>
+      </c>
+      <c r="B9" s="65"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="60"/>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="61">
+        <v>8</v>
+      </c>
+      <c r="B10" s="65"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="60"/>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="54">
+        <v>9</v>
+      </c>
+      <c r="B11" s="65"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="60"/>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="61">
+        <v>10</v>
+      </c>
+      <c r="B12" s="65"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="60"/>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="54">
+        <v>11</v>
+      </c>
+      <c r="B13" s="65"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="60"/>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="61">
+        <v>12</v>
+      </c>
+      <c r="B14" s="65"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="59"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="60"/>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="54">
+        <v>13</v>
+      </c>
+      <c r="B15" s="65"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="59"/>
+      <c r="Z15" s="59"/>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="60"/>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="61">
+        <v>14</v>
+      </c>
+      <c r="B16" s="65"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="59"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="59"/>
+      <c r="W16" s="59"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="59"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="60"/>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="54">
+        <v>15</v>
+      </c>
+      <c r="B17" s="65"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="59"/>
+      <c r="X17" s="59"/>
+      <c r="Y17" s="59"/>
+      <c r="Z17" s="59"/>
+      <c r="AA17" s="59"/>
+      <c r="AB17" s="60"/>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="61">
+        <v>16</v>
+      </c>
+      <c r="B18" s="65"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="59"/>
+      <c r="W18" s="59"/>
+      <c r="X18" s="59"/>
+      <c r="Y18" s="59"/>
+      <c r="Z18" s="59"/>
+      <c r="AA18" s="59"/>
+      <c r="AB18" s="60"/>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="54">
+        <v>17</v>
+      </c>
+      <c r="B19" s="65"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="59"/>
+      <c r="AA19" s="59"/>
+      <c r="AB19" s="60"/>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="54">
+        <v>18</v>
+      </c>
+      <c r="B20" s="65"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="59"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="59"/>
+      <c r="Z20" s="59"/>
+      <c r="AA20" s="59"/>
+      <c r="AB20" s="60"/>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="61">
+        <v>19</v>
+      </c>
+      <c r="B21" s="65"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="59"/>
+      <c r="Z21" s="59"/>
+      <c r="AA21" s="59"/>
+      <c r="AB21" s="60"/>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="54">
+        <v>20</v>
+      </c>
+      <c r="B22" s="65"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="59"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="59"/>
+      <c r="Y22" s="59"/>
+      <c r="Z22" s="59"/>
+      <c r="AA22" s="59"/>
+      <c r="AB22" s="60"/>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="54"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="59"/>
+      <c r="U23" s="59"/>
+      <c r="V23" s="59"/>
+      <c r="W23" s="59"/>
+      <c r="X23" s="59"/>
+      <c r="Y23" s="59"/>
+      <c r="Z23" s="59"/>
+      <c r="AA23" s="59"/>
+      <c r="AB23" s="60"/>
+    </row>
+    <row r="24" spans="1:28" ht="19.5" thickBot="1">
+      <c r="A24" s="68"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="71"/>
+      <c r="V24" s="71"/>
+      <c r="W24" s="71"/>
+      <c r="X24" s="71"/>
+      <c r="Y24" s="71"/>
+      <c r="Z24" s="71"/>
+      <c r="AA24" s="71"/>
+      <c r="AB24" s="73"/>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="50"/>
+      <c r="AB25" s="50"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1199,796 +2088,796 @@
       <c r="AE4" s="2"/>
       <c r="AF4" s="24"/>
     </row>
-    <row r="5" spans="1:32" s="35" customFormat="1" ht="15">
+    <row r="5" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A5" s="25">
         <v>1</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29" t="s">
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="31" t="s">
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="31">
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="28">
         <v>10</v>
       </c>
-      <c r="R5" s="32"/>
-      <c r="S5" s="31" t="s">
+      <c r="R5" s="29"/>
+      <c r="S5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="32"/>
-      <c r="U5" s="31">
+      <c r="T5" s="29"/>
+      <c r="U5" s="28">
         <v>1</v>
       </c>
-      <c r="V5" s="32"/>
-      <c r="W5" s="31">
+      <c r="V5" s="29"/>
+      <c r="W5" s="28">
         <v>1</v>
       </c>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="32"/>
-      <c r="AC5" s="32"/>
-      <c r="AD5" s="32"/>
-      <c r="AE5" s="32"/>
-      <c r="AF5" s="34"/>
-    </row>
-    <row r="6" spans="1:32" s="35" customFormat="1" ht="15">
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="31"/>
+    </row>
+    <row r="6" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A6" s="25">
         <v>2</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29" t="s">
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="31" t="s">
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="31">
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="28">
         <v>10</v>
       </c>
-      <c r="R6" s="32"/>
-      <c r="S6" s="31" t="s">
+      <c r="R6" s="29"/>
+      <c r="S6" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="T6" s="32"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="31">
+      <c r="T6" s="29"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="28">
         <v>1</v>
       </c>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="32"/>
-      <c r="AB6" s="32"/>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="32"/>
-      <c r="AF6" s="34"/>
-    </row>
-    <row r="7" spans="1:32" s="35" customFormat="1" ht="15">
-      <c r="A7" s="36">
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="31"/>
+    </row>
+    <row r="7" spans="1:32" s="32" customFormat="1" ht="15">
+      <c r="A7" s="33">
         <v>3</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29" t="s">
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="31" t="s">
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="40">
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="37">
         <v>100</v>
       </c>
-      <c r="R7" s="38"/>
-      <c r="S7" s="40" t="s">
+      <c r="R7" s="35"/>
+      <c r="S7" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="T7" s="38"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="40">
+      <c r="T7" s="35"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="37">
         <v>1</v>
       </c>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="41"/>
-    </row>
-    <row r="8" spans="1:32" s="35" customFormat="1" ht="15">
-      <c r="A8" s="36"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="38"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="38"/>
-      <c r="AD8" s="38"/>
-      <c r="AE8" s="38"/>
-      <c r="AF8" s="41"/>
-    </row>
-    <row r="9" spans="1:32" s="35" customFormat="1" ht="15">
-      <c r="A9" s="36"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="38"/>
-      <c r="AB9" s="38"/>
-      <c r="AC9" s="38"/>
-      <c r="AD9" s="38"/>
-      <c r="AE9" s="38"/>
-      <c r="AF9" s="41"/>
-    </row>
-    <row r="10" spans="1:32" s="35" customFormat="1" ht="15">
-      <c r="A10" s="36"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="38"/>
-      <c r="AB10" s="38"/>
-      <c r="AC10" s="38"/>
-      <c r="AD10" s="38"/>
-      <c r="AE10" s="38"/>
-      <c r="AF10" s="41"/>
-    </row>
-    <row r="11" spans="1:32" s="35" customFormat="1" ht="15">
-      <c r="A11" s="36"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="40"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="40"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="38"/>
-      <c r="AC11" s="38"/>
-      <c r="AD11" s="38"/>
-      <c r="AE11" s="38"/>
-      <c r="AF11" s="41"/>
-    </row>
-    <row r="12" spans="1:32" s="35" customFormat="1" ht="15">
-      <c r="A12" s="36"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="40"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="38"/>
-      <c r="AC12" s="38"/>
-      <c r="AD12" s="38"/>
-      <c r="AE12" s="38"/>
-      <c r="AF12" s="41"/>
-    </row>
-    <row r="13" spans="1:32" s="35" customFormat="1" ht="15">
-      <c r="A13" s="36"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="40"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="38"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="38"/>
-      <c r="AE13" s="38"/>
-      <c r="AF13" s="41"/>
-    </row>
-    <row r="14" spans="1:32" s="35" customFormat="1" ht="15">
-      <c r="A14" s="36"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="40"/>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="38"/>
-      <c r="AF14" s="41"/>
-    </row>
-    <row r="15" spans="1:32" s="35" customFormat="1" ht="15">
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="38"/>
+    </row>
+    <row r="8" spans="1:32" s="32" customFormat="1" ht="15">
+      <c r="A8" s="33"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="38"/>
+    </row>
+    <row r="9" spans="1:32" s="32" customFormat="1" ht="15">
+      <c r="A9" s="33"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="38"/>
+    </row>
+    <row r="10" spans="1:32" s="32" customFormat="1" ht="15">
+      <c r="A10" s="33"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="35"/>
+      <c r="AF10" s="38"/>
+    </row>
+    <row r="11" spans="1:32" s="32" customFormat="1" ht="15">
+      <c r="A11" s="33"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="35"/>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="38"/>
+    </row>
+    <row r="12" spans="1:32" s="32" customFormat="1" ht="15">
+      <c r="A12" s="33"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="35"/>
+      <c r="AE12" s="35"/>
+      <c r="AF12" s="38"/>
+    </row>
+    <row r="13" spans="1:32" s="32" customFormat="1" ht="15">
+      <c r="A13" s="33"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="35"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="35"/>
+      <c r="AE13" s="35"/>
+      <c r="AF13" s="38"/>
+    </row>
+    <row r="14" spans="1:32" s="32" customFormat="1" ht="15">
+      <c r="A14" s="33"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="35"/>
+      <c r="AE14" s="35"/>
+      <c r="AF14" s="38"/>
+    </row>
+    <row r="15" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A15" s="25"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="32"/>
-      <c r="AC15" s="32"/>
-      <c r="AD15" s="38"/>
-      <c r="AE15" s="38"/>
-      <c r="AF15" s="41"/>
-    </row>
-    <row r="16" spans="1:32" s="35" customFormat="1" ht="15">
+      <c r="B15" s="29"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="35"/>
+      <c r="AE15" s="35"/>
+      <c r="AF15" s="38"/>
+    </row>
+    <row r="16" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A16" s="25"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="32"/>
-      <c r="AB16" s="32"/>
-      <c r="AC16" s="32"/>
-      <c r="AD16" s="38"/>
-      <c r="AE16" s="38"/>
-      <c r="AF16" s="41"/>
-    </row>
-    <row r="17" spans="1:32" s="35" customFormat="1" ht="15">
+      <c r="B16" s="29"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="38"/>
+    </row>
+    <row r="17" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A17" s="25"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="32"/>
-      <c r="AC17" s="32"/>
-      <c r="AD17" s="38"/>
-      <c r="AE17" s="38"/>
-      <c r="AF17" s="41"/>
-    </row>
-    <row r="18" spans="1:32" s="35" customFormat="1" ht="15">
+      <c r="B17" s="29"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="35"/>
+      <c r="AE17" s="35"/>
+      <c r="AF17" s="38"/>
+    </row>
+    <row r="18" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A18" s="25"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="32"/>
-      <c r="AC18" s="32"/>
-      <c r="AD18" s="38"/>
-      <c r="AE18" s="38"/>
-      <c r="AF18" s="41"/>
-    </row>
-    <row r="19" spans="1:32" s="35" customFormat="1" ht="15">
-      <c r="A19" s="36"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="40"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="40"/>
-      <c r="AA19" s="38"/>
-      <c r="AB19" s="38"/>
-      <c r="AC19" s="38"/>
-      <c r="AD19" s="38"/>
-      <c r="AE19" s="38"/>
-      <c r="AF19" s="41"/>
-    </row>
-    <row r="20" spans="1:32" s="35" customFormat="1" ht="15">
-      <c r="A20" s="36"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="40"/>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="40"/>
-      <c r="AA20" s="38"/>
-      <c r="AB20" s="38"/>
-      <c r="AC20" s="38"/>
-      <c r="AD20" s="38"/>
-      <c r="AE20" s="38"/>
-      <c r="AF20" s="41"/>
-    </row>
-    <row r="21" spans="1:32" s="35" customFormat="1" ht="15">
-      <c r="A21" s="36"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="40"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="40"/>
-      <c r="AA21" s="38"/>
-      <c r="AB21" s="38"/>
-      <c r="AC21" s="38"/>
-      <c r="AD21" s="38"/>
-      <c r="AE21" s="38"/>
-      <c r="AF21" s="41"/>
-    </row>
-    <row r="22" spans="1:32" s="35" customFormat="1" ht="15">
-      <c r="A22" s="36"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="38"/>
-      <c r="Y22" s="38"/>
-      <c r="Z22" s="40"/>
-      <c r="AA22" s="38"/>
-      <c r="AB22" s="38"/>
-      <c r="AC22" s="38"/>
-      <c r="AD22" s="38"/>
-      <c r="AE22" s="38"/>
-      <c r="AF22" s="41"/>
-    </row>
-    <row r="23" spans="1:32" s="35" customFormat="1" ht="15">
-      <c r="A23" s="36"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="40"/>
-      <c r="X23" s="38"/>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="40"/>
-      <c r="AA23" s="38"/>
-      <c r="AB23" s="38"/>
-      <c r="AC23" s="38"/>
-      <c r="AD23" s="38"/>
-      <c r="AE23" s="38"/>
-      <c r="AF23" s="41"/>
-    </row>
-    <row r="24" spans="1:32" s="35" customFormat="1" ht="15">
-      <c r="A24" s="36"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="40"/>
-      <c r="AA24" s="38"/>
-      <c r="AB24" s="38"/>
-      <c r="AC24" s="38"/>
-      <c r="AD24" s="38"/>
-      <c r="AE24" s="38"/>
-      <c r="AF24" s="41"/>
-    </row>
-    <row r="25" spans="1:32" s="35" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A25" s="45"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="49"/>
-      <c r="T25" s="50"/>
-      <c r="U25" s="49"/>
-      <c r="V25" s="50"/>
-      <c r="W25" s="49"/>
-      <c r="X25" s="50"/>
-      <c r="Y25" s="50"/>
-      <c r="Z25" s="49"/>
-      <c r="AA25" s="50"/>
-      <c r="AB25" s="50"/>
-      <c r="AC25" s="50"/>
-      <c r="AD25" s="50"/>
-      <c r="AE25" s="50"/>
-      <c r="AF25" s="52"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="38"/>
+    </row>
+    <row r="19" spans="1:32" s="32" customFormat="1" ht="15">
+      <c r="A19" s="33"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="35"/>
+      <c r="AE19" s="35"/>
+      <c r="AF19" s="38"/>
+    </row>
+    <row r="20" spans="1:32" s="32" customFormat="1" ht="15">
+      <c r="A20" s="33"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="37"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="35"/>
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="38"/>
+    </row>
+    <row r="21" spans="1:32" s="32" customFormat="1" ht="15">
+      <c r="A21" s="33"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="37"/>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="35"/>
+      <c r="AE21" s="35"/>
+      <c r="AF21" s="38"/>
+    </row>
+    <row r="22" spans="1:32" s="32" customFormat="1" ht="15">
+      <c r="A22" s="33"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="37"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="35"/>
+      <c r="AF22" s="38"/>
+    </row>
+    <row r="23" spans="1:32" s="32" customFormat="1" ht="15">
+      <c r="A23" s="33"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="37"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="35"/>
+      <c r="AE23" s="35"/>
+      <c r="AF23" s="38"/>
+    </row>
+    <row r="24" spans="1:32" s="32" customFormat="1" ht="15">
+      <c r="A24" s="33"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="37"/>
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="35"/>
+      <c r="AD24" s="35"/>
+      <c r="AE24" s="35"/>
+      <c r="AF24" s="38"/>
+    </row>
+    <row r="25" spans="1:32" s="32" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A25" s="42"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="47"/>
+      <c r="Y25" s="47"/>
+      <c r="Z25" s="46"/>
+      <c r="AA25" s="47"/>
+      <c r="AB25" s="47"/>
+      <c r="AC25" s="47"/>
+      <c r="AD25" s="47"/>
+      <c r="AE25" s="47"/>
+      <c r="AF25" s="49"/>
     </row>
     <row r="26" spans="1:32">
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="53"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="53"/>
-      <c r="Y26" s="53"/>
-      <c r="Z26" s="53"/>
-      <c r="AA26" s="53"/>
-      <c r="AB26" s="53"/>
-      <c r="AC26" s="53"/>
-      <c r="AD26" s="53"/>
-      <c r="AE26" s="53"/>
-      <c r="AF26" s="53"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="50"/>
+      <c r="Z26" s="50"/>
+      <c r="AA26" s="50"/>
+      <c r="AB26" s="50"/>
+      <c r="AC26" s="50"/>
+      <c r="AD26" s="50"/>
+      <c r="AE26" s="50"/>
+      <c r="AF26" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/report/テーブル一覧.xlsx
+++ b/report/テーブル一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3750" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="4920" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="2">
@@ -170,14 +170,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>アカウントメール</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>accountMail</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -229,6 +221,55 @@
   </si>
   <si>
     <t>修正内容</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>accountName</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>2022-03-19</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>太　寅熊</t>
+    <rPh sb="0" eb="1">
+      <t>フトシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トラクマ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ACC_TBL</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>太寅熊</t>
+    <rPh sb="0" eb="3">
+      <t>フトシトラクマ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アカウント名前</t>
+    <rPh sb="5" eb="7">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メールを名前に変更、長さを20に変更</t>
+    <rPh sb="4" eb="6">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -763,6 +804,66 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -771,66 +872,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1140,7 +1181,7 @@
   <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
@@ -1153,24 +1194,24 @@
     <row r="1" spans="1:28" ht="19.5" thickBot="1"/>
     <row r="2" spans="1:28">
       <c r="A2" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
       <c r="G2" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="3"/>
       <c r="J2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -1192,704 +1233,712 @@
       <c r="AB2" s="24"/>
     </row>
     <row r="3" spans="1:28">
-      <c r="A3" s="54">
+      <c r="A3" s="51">
         <v>1</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="60"/>
+      <c r="B3" s="52">
+        <v>44639</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="54"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="57"/>
     </row>
     <row r="4" spans="1:28">
-      <c r="A4" s="61">
+      <c r="A4" s="58">
         <v>2</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="57"/>
-      <c r="AB4" s="64"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="61"/>
     </row>
     <row r="5" spans="1:28">
-      <c r="A5" s="54">
+      <c r="A5" s="51">
         <v>3</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
-      <c r="Y5" s="57"/>
-      <c r="Z5" s="57"/>
-      <c r="AA5" s="57"/>
-      <c r="AB5" s="64"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="61"/>
     </row>
     <row r="6" spans="1:28">
-      <c r="A6" s="61">
+      <c r="A6" s="58">
         <v>4</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
-      <c r="AB6" s="60"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="56"/>
+      <c r="AB6" s="57"/>
     </row>
     <row r="7" spans="1:28">
-      <c r="A7" s="54">
+      <c r="A7" s="51">
         <v>5</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="57"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="57"/>
-      <c r="X7" s="57"/>
-      <c r="Y7" s="57"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="59"/>
-      <c r="AB7" s="60"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="56"/>
+      <c r="AB7" s="57"/>
     </row>
     <row r="8" spans="1:28">
-      <c r="A8" s="61">
+      <c r="A8" s="58">
         <v>6</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="57"/>
-      <c r="AB8" s="64"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="61"/>
     </row>
     <row r="9" spans="1:28">
-      <c r="A9" s="54">
+      <c r="A9" s="51">
         <v>7</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="59"/>
-      <c r="AB9" s="60"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="57"/>
     </row>
     <row r="10" spans="1:28">
-      <c r="A10" s="61">
+      <c r="A10" s="58">
         <v>8</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="60"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="57"/>
     </row>
     <row r="11" spans="1:28">
-      <c r="A11" s="54">
+      <c r="A11" s="51">
         <v>9</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="60"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="57"/>
     </row>
     <row r="12" spans="1:28">
-      <c r="A12" s="61">
+      <c r="A12" s="58">
         <v>10</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="60"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="57"/>
     </row>
     <row r="13" spans="1:28">
-      <c r="A13" s="54">
+      <c r="A13" s="51">
         <v>11</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="60"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="57"/>
     </row>
     <row r="14" spans="1:28">
-      <c r="A14" s="61">
+      <c r="A14" s="58">
         <v>12</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="60"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="57"/>
     </row>
     <row r="15" spans="1:28">
-      <c r="A15" s="54">
+      <c r="A15" s="51">
         <v>13</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="59"/>
-      <c r="AA15" s="59"/>
-      <c r="AB15" s="60"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="56"/>
+      <c r="AB15" s="57"/>
     </row>
     <row r="16" spans="1:28">
-      <c r="A16" s="61">
+      <c r="A16" s="58">
         <v>14</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="59"/>
-      <c r="Z16" s="59"/>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="60"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="57"/>
     </row>
     <row r="17" spans="1:28">
-      <c r="A17" s="54">
+      <c r="A17" s="51">
         <v>15</v>
       </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="59"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="59"/>
-      <c r="Z17" s="59"/>
-      <c r="AA17" s="59"/>
-      <c r="AB17" s="60"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="57"/>
     </row>
     <row r="18" spans="1:28">
-      <c r="A18" s="61">
+      <c r="A18" s="58">
         <v>16</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="59"/>
-      <c r="AA18" s="59"/>
-      <c r="AB18" s="60"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="57"/>
     </row>
     <row r="19" spans="1:28">
-      <c r="A19" s="54">
+      <c r="A19" s="51">
         <v>17</v>
       </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="59"/>
-      <c r="AA19" s="59"/>
-      <c r="AB19" s="60"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="56"/>
+      <c r="AB19" s="57"/>
     </row>
     <row r="20" spans="1:28">
-      <c r="A20" s="54">
+      <c r="A20" s="51">
         <v>18</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="59"/>
-      <c r="Z20" s="59"/>
-      <c r="AA20" s="59"/>
-      <c r="AB20" s="60"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="57"/>
     </row>
     <row r="21" spans="1:28">
-      <c r="A21" s="61">
+      <c r="A21" s="58">
         <v>19</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="59"/>
-      <c r="Z21" s="59"/>
-      <c r="AA21" s="59"/>
-      <c r="AB21" s="60"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
+      <c r="AA21" s="56"/>
+      <c r="AB21" s="57"/>
     </row>
     <row r="22" spans="1:28">
-      <c r="A22" s="54">
+      <c r="A22" s="51">
         <v>20</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="59"/>
-      <c r="Z22" s="59"/>
-      <c r="AA22" s="59"/>
-      <c r="AB22" s="60"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="56"/>
+      <c r="AB22" s="57"/>
     </row>
     <row r="23" spans="1:28">
-      <c r="A23" s="54"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="59"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="59"/>
-      <c r="W23" s="59"/>
-      <c r="X23" s="59"/>
-      <c r="Y23" s="59"/>
-      <c r="Z23" s="59"/>
-      <c r="AA23" s="59"/>
-      <c r="AB23" s="60"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="56"/>
+      <c r="AB23" s="57"/>
     </row>
     <row r="24" spans="1:28" ht="19.5" thickBot="1">
-      <c r="A24" s="68"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="71"/>
-      <c r="U24" s="71"/>
-      <c r="V24" s="71"/>
-      <c r="W24" s="71"/>
-      <c r="X24" s="71"/>
-      <c r="Y24" s="71"/>
-      <c r="Z24" s="71"/>
-      <c r="AA24" s="71"/>
-      <c r="AB24" s="73"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="68"/>
+      <c r="S24" s="68"/>
+      <c r="T24" s="68"/>
+      <c r="U24" s="68"/>
+      <c r="V24" s="68"/>
+      <c r="W24" s="68"/>
+      <c r="X24" s="68"/>
+      <c r="Y24" s="68"/>
+      <c r="Z24" s="68"/>
+      <c r="AA24" s="68"/>
+      <c r="AB24" s="70"/>
     </row>
     <row r="25" spans="1:28">
       <c r="B25" s="50"/>
@@ -1932,7 +1981,7 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H17" sqref="H17:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
@@ -1940,7 +1989,9 @@
     <col min="1" max="1" width="3.875" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="16" width="3.75" style="10"/>
     <col min="17" max="17" width="4.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="3.75" style="10"/>
+    <col min="18" max="18" width="3.75" style="10"/>
+    <col min="19" max="19" width="3.75" style="10" customWidth="1"/>
+    <col min="20" max="20" width="3.75" style="10"/>
     <col min="21" max="21" width="3.875" style="10" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="3.75" style="10"/>
     <col min="23" max="23" width="3.875" style="10" bestFit="1" customWidth="1"/>
@@ -1956,7 +2007,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -1995,14 +2046,14 @@
     </row>
     <row r="2" spans="1:32" ht="19.5" thickBot="1">
       <c r="A2" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="13"/>
       <c r="F2" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -2018,7 +2069,9 @@
         <v>5</v>
       </c>
       <c r="R2" s="13"/>
-      <c r="S2" s="16"/>
+      <c r="S2" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
@@ -2028,7 +2081,9 @@
         <v>6</v>
       </c>
       <c r="Z2" s="13"/>
-      <c r="AA2" s="16"/>
+      <c r="AA2" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
       <c r="AD2" s="14"/>
@@ -2092,13 +2147,13 @@
       <c r="A5" s="25">
         <v>1</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="53"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="26" t="s">
         <v>17</v>
       </c>
@@ -2114,7 +2169,7 @@
       <c r="O5" s="29"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="28">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R5" s="29"/>
       <c r="S5" s="28" t="s">
@@ -2142,13 +2197,13 @@
       <c r="A6" s="25">
         <v>2</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="26" t="s">
         <v>21</v>
       </c>
@@ -2164,7 +2219,7 @@
       <c r="O6" s="29"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="28">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R6" s="29"/>
       <c r="S6" s="28" t="s">
@@ -2190,15 +2245,15 @@
       <c r="A7" s="33">
         <v>3</v>
       </c>
-      <c r="B7" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
+      <c r="B7" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="26" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H7" s="34"/>
       <c r="I7" s="34"/>
@@ -2212,11 +2267,11 @@
       <c r="O7" s="35"/>
       <c r="P7" s="36"/>
       <c r="Q7" s="37">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="R7" s="35"/>
       <c r="S7" s="37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T7" s="35"/>
       <c r="U7" s="37"/>
@@ -2236,11 +2291,11 @@
     </row>
     <row r="8" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A8" s="33"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="39"/>
       <c r="H8" s="34"/>
       <c r="I8" s="34"/>
@@ -2886,7 +2941,7 @@
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
   </mergeCells>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/report/テーブル一覧.xlsx
+++ b/report/テーブル一覧.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="6090" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="3" r:id="rId1"/>
     <sheet name="ACC_TBL" sheetId="2" r:id="rId2"/>
+    <sheet name="BOA_TBL" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ACC_TBL!$A$1:$AF$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ACC_TBL!$A$1:$AF$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">BOA_TBL!$A$1:$AF$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">修正履歴!$A$1:$AC$25</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="74">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="2">
@@ -147,10 +149,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>Character</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -159,10 +157,6 @@
   </si>
   <si>
     <t>accountPassword</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Character</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -270,6 +264,180 @@
     <rPh sb="16" eb="18">
       <t>ヘンコウ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テーブル追記</t>
+    <rPh sb="4" eb="6">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BOA_TBL</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BOA_TBL</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-03-27</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>太　寅熊</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>番号</t>
+    <rPh sb="0" eb="2">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>作成日時</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>作成者</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>createTime</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>updateTime</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>contents</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -771,18 +939,9 @@
     <xf numFmtId="11" fontId="7" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -871,6 +1030,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1181,7 +1349,7 @@
   <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
@@ -1194,24 +1362,24 @@
     <row r="1" spans="1:28" ht="19.5" thickBot="1"/>
     <row r="2" spans="1:28">
       <c r="A2" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
       <c r="G2" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="3"/>
       <c r="J2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -1233,741 +1401,749 @@
       <c r="AB2" s="24"/>
     </row>
     <row r="3" spans="1:28">
-      <c r="A3" s="51">
+      <c r="A3" s="48">
         <v>1</v>
       </c>
-      <c r="B3" s="52">
+      <c r="B3" s="49">
         <v>44639</v>
       </c>
-      <c r="C3" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53" t="s">
+      <c r="C3" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="54" t="s">
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="54"/>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="55">
+        <v>2</v>
+      </c>
+      <c r="B4" s="49">
+        <v>44647</v>
+      </c>
+      <c r="C4" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="57"/>
-    </row>
-    <row r="4" spans="1:28">
-      <c r="A4" s="58">
-        <v>2</v>
-      </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="61"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="51"/>
+      <c r="AB4" s="58"/>
     </row>
     <row r="5" spans="1:28">
-      <c r="A5" s="51">
+      <c r="A5" s="48">
         <v>3</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="54"/>
-      <c r="AB5" s="61"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="51"/>
+      <c r="AA5" s="51"/>
+      <c r="AB5" s="58"/>
     </row>
     <row r="6" spans="1:28">
-      <c r="A6" s="58">
+      <c r="A6" s="55">
         <v>4</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="56"/>
-      <c r="AB6" s="57"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="54"/>
     </row>
     <row r="7" spans="1:28">
-      <c r="A7" s="51">
+      <c r="A7" s="48">
         <v>5</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="56"/>
-      <c r="AB7" s="57"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="54"/>
     </row>
     <row r="8" spans="1:28">
-      <c r="A8" s="58">
+      <c r="A8" s="55">
         <v>6</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="54"/>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="61"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="51"/>
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="51"/>
+      <c r="AB8" s="58"/>
     </row>
     <row r="9" spans="1:28">
-      <c r="A9" s="51">
+      <c r="A9" s="48">
         <v>7</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="57"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="54"/>
     </row>
     <row r="10" spans="1:28">
-      <c r="A10" s="58">
+      <c r="A10" s="55">
         <v>8</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="57"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="54"/>
     </row>
     <row r="11" spans="1:28">
-      <c r="A11" s="51">
+      <c r="A11" s="48">
         <v>9</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="57"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="53"/>
+      <c r="AB11" s="54"/>
     </row>
     <row r="12" spans="1:28">
-      <c r="A12" s="58">
+      <c r="A12" s="55">
         <v>10</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="56"/>
-      <c r="AB12" s="57"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="54"/>
     </row>
     <row r="13" spans="1:28">
-      <c r="A13" s="51">
+      <c r="A13" s="48">
         <v>11</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="56"/>
-      <c r="AB13" s="57"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="54"/>
     </row>
     <row r="14" spans="1:28">
-      <c r="A14" s="58">
+      <c r="A14" s="55">
         <v>12</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="56"/>
-      <c r="AB14" s="57"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="54"/>
     </row>
     <row r="15" spans="1:28">
-      <c r="A15" s="51">
+      <c r="A15" s="48">
         <v>13</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="56"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
-      <c r="AA15" s="56"/>
-      <c r="AB15" s="57"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="54"/>
     </row>
     <row r="16" spans="1:28">
-      <c r="A16" s="58">
+      <c r="A16" s="55">
         <v>14</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="57"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="54"/>
     </row>
     <row r="17" spans="1:28">
-      <c r="A17" s="51">
+      <c r="A17" s="48">
         <v>15</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="56"/>
-      <c r="AB17" s="57"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="53"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="53"/>
+      <c r="AB17" s="54"/>
     </row>
     <row r="18" spans="1:28">
-      <c r="A18" s="58">
+      <c r="A18" s="55">
         <v>16</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="56"/>
-      <c r="AB18" s="57"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="53"/>
+      <c r="W18" s="53"/>
+      <c r="X18" s="53"/>
+      <c r="Y18" s="53"/>
+      <c r="Z18" s="53"/>
+      <c r="AA18" s="53"/>
+      <c r="AB18" s="54"/>
     </row>
     <row r="19" spans="1:28">
-      <c r="A19" s="51">
+      <c r="A19" s="48">
         <v>17</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="56"/>
-      <c r="AB19" s="57"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="53"/>
+      <c r="W19" s="53"/>
+      <c r="X19" s="53"/>
+      <c r="Y19" s="53"/>
+      <c r="Z19" s="53"/>
+      <c r="AA19" s="53"/>
+      <c r="AB19" s="54"/>
     </row>
     <row r="20" spans="1:28">
-      <c r="A20" s="51">
+      <c r="A20" s="48">
         <v>18</v>
       </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="57"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="53"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="53"/>
+      <c r="AB20" s="54"/>
     </row>
     <row r="21" spans="1:28">
-      <c r="A21" s="58">
+      <c r="A21" s="55">
         <v>19</v>
       </c>
-      <c r="B21" s="62"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="56"/>
-      <c r="AB21" s="57"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="53"/>
+      <c r="AB21" s="54"/>
     </row>
     <row r="22" spans="1:28">
-      <c r="A22" s="51">
+      <c r="A22" s="48">
         <v>20</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="56"/>
-      <c r="AB22" s="57"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="54"/>
     </row>
     <row r="23" spans="1:28">
-      <c r="A23" s="51"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="56"/>
-      <c r="AB23" s="57"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="53"/>
+      <c r="AB23" s="54"/>
     </row>
     <row r="24" spans="1:28" ht="19.5" thickBot="1">
-      <c r="A24" s="65"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="68"/>
-      <c r="S24" s="68"/>
-      <c r="T24" s="68"/>
-      <c r="U24" s="68"/>
-      <c r="V24" s="68"/>
-      <c r="W24" s="68"/>
-      <c r="X24" s="68"/>
-      <c r="Y24" s="68"/>
-      <c r="Z24" s="68"/>
-      <c r="AA24" s="68"/>
-      <c r="AB24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
+      <c r="S24" s="65"/>
+      <c r="T24" s="65"/>
+      <c r="U24" s="65"/>
+      <c r="V24" s="65"/>
+      <c r="W24" s="65"/>
+      <c r="X24" s="65"/>
+      <c r="Y24" s="65"/>
+      <c r="Z24" s="65"/>
+      <c r="AA24" s="65"/>
+      <c r="AB24" s="67"/>
     </row>
     <row r="25" spans="1:28">
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="50"/>
-      <c r="U25" s="50"/>
-      <c r="V25" s="50"/>
-      <c r="W25" s="50"/>
-      <c r="X25" s="50"/>
-      <c r="Y25" s="50"/>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="50"/>
-      <c r="AB25" s="50"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="47"/>
+      <c r="X25" s="47"/>
+      <c r="Y25" s="47"/>
+      <c r="Z25" s="47"/>
+      <c r="AA25" s="47"/>
+      <c r="AB25" s="47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -1981,7 +2157,7 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17:H18"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
@@ -2007,7 +2183,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -2046,14 +2222,14 @@
     </row>
     <row r="2" spans="1:32" ht="19.5" thickBot="1">
       <c r="A2" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="13"/>
       <c r="F2" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -2070,7 +2246,7 @@
       </c>
       <c r="R2" s="13"/>
       <c r="S2" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
@@ -2082,7 +2258,7 @@
       </c>
       <c r="Z2" s="13"/>
       <c r="AA2" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
@@ -2147,13 +2323,13 @@
       <c r="A5" s="25">
         <v>1</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="73"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="70"/>
       <c r="G5" s="26" t="s">
         <v>17</v>
       </c>
@@ -2163,7 +2339,7 @@
       <c r="K5" s="27"/>
       <c r="L5" s="27"/>
       <c r="M5" s="28" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="N5" s="29"/>
       <c r="O5" s="29"/>
@@ -2173,19 +2349,21 @@
       </c>
       <c r="R5" s="29"/>
       <c r="S5" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T5" s="29"/>
       <c r="U5" s="28">
         <v>1</v>
       </c>
       <c r="V5" s="29"/>
-      <c r="W5" s="28">
-        <v>1</v>
+      <c r="W5" s="28" t="s">
+        <v>56</v>
       </c>
       <c r="X5" s="29"/>
       <c r="Y5" s="29"/>
-      <c r="Z5" s="28"/>
+      <c r="Z5" s="28" t="s">
+        <v>59</v>
+      </c>
       <c r="AA5" s="29"/>
       <c r="AB5" s="29"/>
       <c r="AC5" s="29"/>
@@ -2197,15 +2375,15 @@
       <c r="A6" s="25">
         <v>2</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="26" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="26" t="s">
-        <v>21</v>
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
@@ -2213,7 +2391,7 @@
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
       <c r="M6" s="28" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="N6" s="29"/>
       <c r="O6" s="29"/>
@@ -2223,17 +2401,21 @@
       </c>
       <c r="R6" s="29"/>
       <c r="S6" s="28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T6" s="29"/>
-      <c r="U6" s="28"/>
+      <c r="U6" s="28" t="s">
+        <v>58</v>
+      </c>
       <c r="V6" s="29"/>
-      <c r="W6" s="28">
-        <v>1</v>
+      <c r="W6" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="X6" s="29"/>
       <c r="Y6" s="29"/>
-      <c r="Z6" s="28"/>
+      <c r="Z6" s="28" t="s">
+        <v>60</v>
+      </c>
       <c r="AA6" s="29"/>
       <c r="AB6" s="29"/>
       <c r="AC6" s="29"/>
@@ -2245,15 +2427,15 @@
       <c r="A7" s="33">
         <v>3</v>
       </c>
-      <c r="B7" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="73"/>
+      <c r="B7" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="70"/>
       <c r="G7" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7" s="34"/>
       <c r="I7" s="34"/>
@@ -2261,7 +2443,7 @@
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
       <c r="M7" s="28" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="N7" s="35"/>
       <c r="O7" s="35"/>
@@ -2271,17 +2453,21 @@
       </c>
       <c r="R7" s="35"/>
       <c r="S7" s="37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T7" s="35"/>
-      <c r="U7" s="37"/>
+      <c r="U7" s="37" t="s">
+        <v>58</v>
+      </c>
       <c r="V7" s="35"/>
-      <c r="W7" s="37">
-        <v>1</v>
+      <c r="W7" s="37" t="s">
+        <v>57</v>
       </c>
       <c r="X7" s="35"/>
       <c r="Y7" s="35"/>
-      <c r="Z7" s="37"/>
+      <c r="Z7" s="37" t="s">
+        <v>58</v>
+      </c>
       <c r="AA7" s="35"/>
       <c r="AB7" s="35"/>
       <c r="AC7" s="35"/>
@@ -2291,11 +2477,11 @@
     </row>
     <row r="8" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A8" s="33"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="73"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="39"/>
       <c r="H8" s="34"/>
       <c r="I8" s="34"/>
@@ -2325,11 +2511,11 @@
     </row>
     <row r="9" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A9" s="33"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
       <c r="G9" s="39"/>
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
@@ -2359,11 +2545,11 @@
     </row>
     <row r="10" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A10" s="33"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="70"/>
       <c r="G10" s="39"/>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
@@ -2393,11 +2579,11 @@
     </row>
     <row r="11" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A11" s="33"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="70"/>
       <c r="G11" s="39"/>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
@@ -2427,11 +2613,11 @@
     </row>
     <row r="12" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A12" s="33"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="70"/>
       <c r="G12" s="39"/>
       <c r="H12" s="34"/>
       <c r="I12" s="34"/>
@@ -2461,11 +2647,11 @@
     </row>
     <row r="13" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A13" s="33"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="70"/>
       <c r="G13" s="39"/>
       <c r="H13" s="34"/>
       <c r="I13" s="34"/>
@@ -2495,11 +2681,11 @@
     </row>
     <row r="14" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A14" s="33"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="70"/>
       <c r="G14" s="39"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
@@ -2529,11 +2715,11 @@
     </row>
     <row r="15" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A15" s="25"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="70"/>
       <c r="G15" s="26"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
@@ -2563,11 +2749,11 @@
     </row>
     <row r="16" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A16" s="25"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="70"/>
       <c r="G16" s="26"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
@@ -2597,11 +2783,11 @@
     </row>
     <row r="17" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A17" s="25"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="70"/>
       <c r="G17" s="26"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
@@ -2631,11 +2817,11 @@
     </row>
     <row r="18" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A18" s="25"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="70"/>
       <c r="G18" s="26"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
@@ -2665,11 +2851,11 @@
     </row>
     <row r="19" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A19" s="33"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="70"/>
       <c r="G19" s="39"/>
       <c r="H19" s="34"/>
       <c r="I19" s="34"/>
@@ -2699,11 +2885,11 @@
     </row>
     <row r="20" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A20" s="33"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="70"/>
       <c r="G20" s="39"/>
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
@@ -2733,11 +2919,11 @@
     </row>
     <row r="21" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A21" s="33"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="70"/>
       <c r="G21" s="39"/>
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
@@ -2767,11 +2953,11 @@
     </row>
     <row r="22" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A22" s="33"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="70"/>
       <c r="G22" s="39"/>
       <c r="H22" s="34"/>
       <c r="I22" s="34"/>
@@ -2801,11 +2987,11 @@
     </row>
     <row r="23" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A23" s="33"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="70"/>
       <c r="G23" s="39"/>
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
@@ -2835,11 +3021,11 @@
     </row>
     <row r="24" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A24" s="33"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="70"/>
       <c r="G24" s="39"/>
       <c r="H24" s="34"/>
       <c r="I24" s="34"/>
@@ -2868,81 +3054,1164 @@
       <c r="AF24" s="38"/>
     </row>
     <row r="25" spans="1:32" s="32" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A25" s="42"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="47"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="47"/>
-      <c r="W25" s="46"/>
-      <c r="X25" s="47"/>
-      <c r="Y25" s="47"/>
-      <c r="Z25" s="46"/>
-      <c r="AA25" s="47"/>
-      <c r="AB25" s="47"/>
-      <c r="AC25" s="47"/>
-      <c r="AD25" s="47"/>
-      <c r="AE25" s="47"/>
-      <c r="AF25" s="49"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="44"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="44"/>
+      <c r="AB25" s="44"/>
+      <c r="AC25" s="44"/>
+      <c r="AD25" s="44"/>
+      <c r="AE25" s="44"/>
+      <c r="AF25" s="46"/>
     </row>
     <row r="26" spans="1:32">
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
-      <c r="X26" s="50"/>
-      <c r="Y26" s="50"/>
-      <c r="Z26" s="50"/>
-      <c r="AA26" s="50"/>
-      <c r="AB26" s="50"/>
-      <c r="AC26" s="50"/>
-      <c r="AD26" s="50"/>
-      <c r="AE26" s="50"/>
-      <c r="AF26" s="50"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="47"/>
+      <c r="X26" s="47"/>
+      <c r="Y26" s="47"/>
+      <c r="Z26" s="47"/>
+      <c r="AA26" s="47"/>
+      <c r="AB26" s="47"/>
+      <c r="AC26" s="47"/>
+      <c r="AD26" s="47"/>
+      <c r="AE26" s="47"/>
+      <c r="AF26" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="21">
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="3.75" style="10"/>
+    <col min="17" max="17" width="5" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.75" style="10"/>
+    <col min="19" max="19" width="3.75" style="10" customWidth="1"/>
+    <col min="20" max="20" width="3.75" style="10"/>
+    <col min="21" max="21" width="3.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.75" style="10"/>
+    <col min="23" max="23" width="3.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="3.75" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="3"/>
+      <c r="S1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="9"/>
+    </row>
+    <row r="2" spans="1:32" ht="19.5" thickBot="1">
+      <c r="A2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="13"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="18"/>
+    </row>
+    <row r="3" spans="1:32" ht="19.5" thickBot="1"/>
+    <row r="4" spans="1:32">
+      <c r="A4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="2"/>
+      <c r="U4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="V4" s="2"/>
+      <c r="W4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="24"/>
+    </row>
+    <row r="5" spans="1:32" s="32" customFormat="1" ht="15">
+      <c r="A5" s="25">
+        <v>1</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="R5" s="29"/>
+      <c r="S5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" s="29"/>
+      <c r="U5" s="28">
+        <v>1</v>
+      </c>
+      <c r="V5" s="29"/>
+      <c r="W5" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="31"/>
+    </row>
+    <row r="6" spans="1:32" s="32" customFormat="1" ht="15">
+      <c r="A6" s="25">
+        <v>2</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="28">
+        <v>30</v>
+      </c>
+      <c r="R6" s="29"/>
+      <c r="S6" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" s="29"/>
+      <c r="U6" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="V6" s="29"/>
+      <c r="W6" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="31"/>
+    </row>
+    <row r="7" spans="1:32" s="32" customFormat="1" ht="15">
+      <c r="A7" s="33">
+        <v>3</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="37">
+        <v>1000</v>
+      </c>
+      <c r="R7" s="35"/>
+      <c r="S7" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7" s="35"/>
+      <c r="U7" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="V7" s="35"/>
+      <c r="W7" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="38"/>
+    </row>
+    <row r="8" spans="1:32" s="32" customFormat="1" ht="15">
+      <c r="A8" s="33">
+        <v>4</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="R8" s="35"/>
+      <c r="S8" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="T8" s="35"/>
+      <c r="U8" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="V8" s="35"/>
+      <c r="W8" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="38"/>
+    </row>
+    <row r="9" spans="1:32" s="32" customFormat="1" ht="15">
+      <c r="A9" s="33">
+        <v>5</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="R9" s="35"/>
+      <c r="S9" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="T9" s="35"/>
+      <c r="U9" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="V9" s="35"/>
+      <c r="W9" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="38"/>
+    </row>
+    <row r="10" spans="1:32" s="32" customFormat="1" ht="15">
+      <c r="A10" s="33">
+        <v>6</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="37">
+        <v>20</v>
+      </c>
+      <c r="R10" s="35"/>
+      <c r="S10" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="T10" s="35"/>
+      <c r="U10" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="V10" s="35"/>
+      <c r="W10" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="35"/>
+      <c r="AF10" s="38"/>
+    </row>
+    <row r="11" spans="1:32" s="32" customFormat="1" ht="15">
+      <c r="A11" s="33">
+        <v>7</v>
+      </c>
+      <c r="B11" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="R11" s="35"/>
+      <c r="S11" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="T11" s="35"/>
+      <c r="U11" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="V11" s="35"/>
+      <c r="W11" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="35"/>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="38"/>
+    </row>
+    <row r="12" spans="1:32" s="32" customFormat="1" ht="15">
+      <c r="A12" s="33"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="35"/>
+      <c r="AE12" s="35"/>
+      <c r="AF12" s="38"/>
+    </row>
+    <row r="13" spans="1:32" s="32" customFormat="1" ht="15">
+      <c r="A13" s="33"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="35"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="35"/>
+      <c r="AE13" s="35"/>
+      <c r="AF13" s="38"/>
+    </row>
+    <row r="14" spans="1:32" s="32" customFormat="1" ht="15">
+      <c r="A14" s="33"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="35"/>
+      <c r="AE14" s="35"/>
+      <c r="AF14" s="38"/>
+    </row>
+    <row r="15" spans="1:32" s="32" customFormat="1" ht="15">
+      <c r="A15" s="25"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="35"/>
+      <c r="AE15" s="35"/>
+      <c r="AF15" s="38"/>
+    </row>
+    <row r="16" spans="1:32" s="32" customFormat="1" ht="15">
+      <c r="A16" s="25"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="38"/>
+    </row>
+    <row r="17" spans="1:32" s="32" customFormat="1" ht="15">
+      <c r="A17" s="25"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="35"/>
+      <c r="AE17" s="35"/>
+      <c r="AF17" s="38"/>
+    </row>
+    <row r="18" spans="1:32" s="32" customFormat="1" ht="15">
+      <c r="A18" s="25"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="38"/>
+    </row>
+    <row r="19" spans="1:32" s="32" customFormat="1" ht="15">
+      <c r="A19" s="33"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="35"/>
+      <c r="AE19" s="35"/>
+      <c r="AF19" s="38"/>
+    </row>
+    <row r="20" spans="1:32" s="32" customFormat="1" ht="15">
+      <c r="A20" s="33"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="37"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="35"/>
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="38"/>
+    </row>
+    <row r="21" spans="1:32" s="32" customFormat="1" ht="15">
+      <c r="A21" s="33"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="37"/>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="35"/>
+      <c r="AE21" s="35"/>
+      <c r="AF21" s="38"/>
+    </row>
+    <row r="22" spans="1:32" s="32" customFormat="1" ht="15">
+      <c r="A22" s="33"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="37"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="35"/>
+      <c r="AF22" s="38"/>
+    </row>
+    <row r="23" spans="1:32" s="32" customFormat="1" ht="15">
+      <c r="A23" s="33"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="37"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="35"/>
+      <c r="AE23" s="35"/>
+      <c r="AF23" s="38"/>
+    </row>
+    <row r="24" spans="1:32" s="32" customFormat="1" ht="15">
+      <c r="A24" s="33"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="37"/>
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="35"/>
+      <c r="AD24" s="35"/>
+      <c r="AE24" s="35"/>
+      <c r="AF24" s="38"/>
+    </row>
+    <row r="25" spans="1:32" s="32" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A25" s="40"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="44"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="44"/>
+      <c r="AB25" s="44"/>
+      <c r="AC25" s="44"/>
+      <c r="AD25" s="44"/>
+      <c r="AE25" s="44"/>
+      <c r="AF25" s="46"/>
+    </row>
+    <row r="26" spans="1:32">
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="47"/>
+      <c r="X26" s="47"/>
+      <c r="Y26" s="47"/>
+      <c r="Z26" s="47"/>
+      <c r="AA26" s="47"/>
+      <c r="AB26" s="47"/>
+      <c r="AC26" s="47"/>
+      <c r="AD26" s="47"/>
+      <c r="AE26" s="47"/>
+      <c r="AF26" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/report/テーブル一覧.xlsx
+++ b/report/テーブル一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6090" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2340" yWindow="0" windowWidth="16455" windowHeight="10875"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="2">
@@ -318,16 +318,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>更新日時</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>作成者</t>
     <rPh sb="0" eb="2">
       <t>サクセイ</t>
@@ -397,10 +387,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>VARCHAR</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -426,10 +412,6 @@
   </si>
   <si>
     <t>createTime</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>updateTime</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -2339,7 +2321,7 @@
       <c r="K5" s="27"/>
       <c r="L5" s="27"/>
       <c r="M5" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N5" s="29"/>
       <c r="O5" s="29"/>
@@ -2357,12 +2339,12 @@
       </c>
       <c r="V5" s="29"/>
       <c r="W5" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X5" s="29"/>
       <c r="Y5" s="29"/>
       <c r="Z5" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA5" s="29"/>
       <c r="AB5" s="29"/>
@@ -2391,7 +2373,7 @@
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
       <c r="M6" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N6" s="29"/>
       <c r="O6" s="29"/>
@@ -2405,16 +2387,16 @@
       </c>
       <c r="T6" s="29"/>
       <c r="U6" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V6" s="29"/>
       <c r="W6" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X6" s="29"/>
       <c r="Y6" s="29"/>
       <c r="Z6" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA6" s="29"/>
       <c r="AB6" s="29"/>
@@ -2443,7 +2425,7 @@
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
       <c r="M7" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N7" s="35"/>
       <c r="O7" s="35"/>
@@ -2457,16 +2439,16 @@
       </c>
       <c r="T7" s="35"/>
       <c r="U7" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V7" s="35"/>
       <c r="W7" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X7" s="35"/>
       <c r="Y7" s="35"/>
       <c r="Z7" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA7" s="35"/>
       <c r="AB7" s="35"/>
@@ -3155,7 +3137,7 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
@@ -3325,7 +3307,7 @@
       <c r="E5" s="69"/>
       <c r="F5" s="70"/>
       <c r="G5" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
@@ -3333,13 +3315,13 @@
       <c r="K5" s="27"/>
       <c r="L5" s="27"/>
       <c r="M5" s="28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N5" s="29"/>
       <c r="O5" s="29"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R5" s="29"/>
       <c r="S5" s="28" t="s">
@@ -3351,12 +3333,12 @@
       </c>
       <c r="V5" s="29"/>
       <c r="W5" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X5" s="29"/>
       <c r="Y5" s="29"/>
       <c r="Z5" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA5" s="29"/>
       <c r="AB5" s="29"/>
@@ -3377,7 +3359,7 @@
       <c r="E6" s="69"/>
       <c r="F6" s="70"/>
       <c r="G6" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
@@ -3385,7 +3367,7 @@
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
       <c r="M6" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N6" s="29"/>
       <c r="O6" s="29"/>
@@ -3399,16 +3381,16 @@
       </c>
       <c r="T6" s="29"/>
       <c r="U6" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V6" s="29"/>
       <c r="W6" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X6" s="29"/>
       <c r="Y6" s="29"/>
       <c r="Z6" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA6" s="29"/>
       <c r="AB6" s="29"/>
@@ -3429,7 +3411,7 @@
       <c r="E7" s="69"/>
       <c r="F7" s="70"/>
       <c r="G7" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H7" s="34"/>
       <c r="I7" s="34"/>
@@ -3437,7 +3419,7 @@
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
       <c r="M7" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N7" s="35"/>
       <c r="O7" s="35"/>
@@ -3451,16 +3433,16 @@
       </c>
       <c r="T7" s="35"/>
       <c r="U7" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V7" s="35"/>
       <c r="W7" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X7" s="35"/>
       <c r="Y7" s="35"/>
       <c r="Z7" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA7" s="35"/>
       <c r="AB7" s="35"/>
@@ -3474,45 +3456,45 @@
         <v>4</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="69"/>
       <c r="D8" s="69"/>
       <c r="E8" s="69"/>
       <c r="F8" s="70"/>
       <c r="G8" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H8" s="34"/>
       <c r="I8" s="34"/>
       <c r="J8" s="34"/>
       <c r="K8" s="34"/>
       <c r="L8" s="34"/>
-      <c r="M8" s="37" t="s">
-        <v>66</v>
+      <c r="M8" s="28" t="s">
+        <v>62</v>
       </c>
       <c r="N8" s="35"/>
       <c r="O8" s="35"/>
       <c r="P8" s="36"/>
-      <c r="Q8" s="37" t="s">
-        <v>62</v>
+      <c r="Q8" s="37">
+        <v>20</v>
       </c>
       <c r="R8" s="35"/>
       <c r="S8" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T8" s="35"/>
       <c r="U8" s="37" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="V8" s="35"/>
       <c r="W8" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X8" s="35"/>
       <c r="Y8" s="35"/>
       <c r="Z8" s="37" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="AA8" s="35"/>
       <c r="AB8" s="35"/>
@@ -3526,14 +3508,14 @@
         <v>5</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="69"/>
       <c r="D9" s="69"/>
       <c r="E9" s="69"/>
       <c r="F9" s="70"/>
       <c r="G9" s="39" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
@@ -3541,30 +3523,30 @@
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
       <c r="M9" s="37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N9" s="35"/>
       <c r="O9" s="35"/>
       <c r="P9" s="36"/>
       <c r="Q9" s="37" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="R9" s="35"/>
       <c r="S9" s="37" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="T9" s="35"/>
       <c r="U9" s="37" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="V9" s="35"/>
       <c r="W9" s="37" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="X9" s="35"/>
       <c r="Y9" s="35"/>
       <c r="Z9" s="37" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA9" s="35"/>
       <c r="AB9" s="35"/>
@@ -3585,38 +3567,38 @@
       <c r="E10" s="69"/>
       <c r="F10" s="70"/>
       <c r="G10" s="39" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
       <c r="J10" s="34"/>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
-      <c r="M10" s="28" t="s">
-        <v>64</v>
+      <c r="M10" s="37" t="s">
+        <v>65</v>
       </c>
       <c r="N10" s="35"/>
       <c r="O10" s="35"/>
       <c r="P10" s="36"/>
-      <c r="Q10" s="37">
-        <v>20</v>
+      <c r="Q10" s="37" t="s">
+        <v>50</v>
       </c>
       <c r="R10" s="35"/>
       <c r="S10" s="37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="T10" s="35"/>
       <c r="U10" s="37" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="V10" s="35"/>
       <c r="W10" s="37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X10" s="35"/>
       <c r="Y10" s="35"/>
       <c r="Z10" s="37" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="AA10" s="35"/>
       <c r="AB10" s="35"/>
@@ -3626,50 +3608,32 @@
       <c r="AF10" s="38"/>
     </row>
     <row r="11" spans="1:32" s="32" customFormat="1" ht="15">
-      <c r="A11" s="33">
-        <v>7</v>
-      </c>
-      <c r="B11" s="68" t="s">
-        <v>49</v>
-      </c>
+      <c r="A11" s="33"/>
+      <c r="B11" s="68"/>
       <c r="C11" s="69"/>
       <c r="D11" s="69"/>
       <c r="E11" s="69"/>
       <c r="F11" s="70"/>
-      <c r="G11" s="39" t="s">
-        <v>50</v>
-      </c>
+      <c r="G11" s="39"/>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
-      <c r="M11" s="37" t="s">
-        <v>67</v>
-      </c>
+      <c r="M11" s="37"/>
       <c r="N11" s="35"/>
       <c r="O11" s="35"/>
       <c r="P11" s="36"/>
-      <c r="Q11" s="37" t="s">
-        <v>51</v>
-      </c>
+      <c r="Q11" s="37"/>
       <c r="R11" s="35"/>
-      <c r="S11" s="37" t="s">
-        <v>52</v>
-      </c>
+      <c r="S11" s="37"/>
       <c r="T11" s="35"/>
-      <c r="U11" s="37" t="s">
-        <v>55</v>
-      </c>
+      <c r="U11" s="37"/>
       <c r="V11" s="35"/>
-      <c r="W11" s="37" t="s">
-        <v>54</v>
-      </c>
+      <c r="W11" s="37"/>
       <c r="X11" s="35"/>
       <c r="Y11" s="35"/>
-      <c r="Z11" s="37" t="s">
-        <v>62</v>
-      </c>
+      <c r="Z11" s="37"/>
       <c r="AA11" s="35"/>
       <c r="AB11" s="35"/>
       <c r="AC11" s="35"/>
@@ -3888,29 +3852,29 @@
       <c r="D18" s="69"/>
       <c r="E18" s="69"/>
       <c r="F18" s="70"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="29"/>
-      <c r="AC18" s="29"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
       <c r="AD18" s="35"/>
       <c r="AE18" s="35"/>
       <c r="AF18" s="38"/>
@@ -4197,18 +4161,18 @@
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B12:F12"/>
     <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/report/テーブル一覧.xlsx
+++ b/report/テーブル一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="0" windowWidth="16455" windowHeight="10875"/>
+    <workbookView xWindow="3510" yWindow="0" windowWidth="16455" windowHeight="10875"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="71">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="2">
@@ -395,10 +395,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>BOOLEAN</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -420,6 +416,13 @@
   </si>
   <si>
     <t>contents</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>作成日時の型と長さを修正</t>
+    <rPh sb="10" eb="12">
+      <t>シュウセイ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1005,6 +1008,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1012,15 +1024,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1331,7 +1334,7 @@
   <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
@@ -1466,15 +1469,23 @@
       <c r="A5" s="48">
         <v>3</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="50"/>
+      <c r="B5" s="49">
+        <v>44684</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>39</v>
+      </c>
       <c r="D5" s="51"/>
       <c r="E5" s="51"/>
       <c r="F5" s="52"/>
-      <c r="G5" s="50"/>
+      <c r="G5" s="50" t="s">
+        <v>35</v>
+      </c>
       <c r="H5" s="51"/>
       <c r="I5" s="52"/>
-      <c r="J5" s="51"/>
+      <c r="J5" s="51" t="s">
+        <v>70</v>
+      </c>
       <c r="K5" s="51"/>
       <c r="L5" s="51"/>
       <c r="M5" s="51"/>
@@ -2305,13 +2316,13 @@
       <c r="A5" s="25">
         <v>1</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="70"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="26" t="s">
         <v>17</v>
       </c>
@@ -2357,13 +2368,13 @@
       <c r="A6" s="25">
         <v>2</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="70"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="26" t="s">
         <v>20</v>
       </c>
@@ -2409,13 +2420,13 @@
       <c r="A7" s="33">
         <v>3</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="70"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="26" t="s">
         <v>31</v>
       </c>
@@ -2459,11 +2470,11 @@
     </row>
     <row r="8" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A8" s="33"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="39"/>
       <c r="H8" s="34"/>
       <c r="I8" s="34"/>
@@ -2493,11 +2504,11 @@
     </row>
     <row r="9" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A9" s="33"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="70"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="39"/>
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
@@ -2527,11 +2538,11 @@
     </row>
     <row r="10" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A10" s="33"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="70"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="39"/>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
@@ -2561,11 +2572,11 @@
     </row>
     <row r="11" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A11" s="33"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="70"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="73"/>
       <c r="G11" s="39"/>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
@@ -2595,11 +2606,11 @@
     </row>
     <row r="12" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A12" s="33"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="70"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="39"/>
       <c r="H12" s="34"/>
       <c r="I12" s="34"/>
@@ -2629,11 +2640,11 @@
     </row>
     <row r="13" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A13" s="33"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="70"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="73"/>
       <c r="G13" s="39"/>
       <c r="H13" s="34"/>
       <c r="I13" s="34"/>
@@ -2663,11 +2674,11 @@
     </row>
     <row r="14" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A14" s="33"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="70"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="39"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
@@ -2697,11 +2708,11 @@
     </row>
     <row r="15" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A15" s="25"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="70"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="73"/>
       <c r="G15" s="26"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
@@ -2731,11 +2742,11 @@
     </row>
     <row r="16" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A16" s="25"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="70"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="73"/>
       <c r="G16" s="26"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
@@ -2765,11 +2776,11 @@
     </row>
     <row r="17" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A17" s="25"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="70"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="73"/>
       <c r="G17" s="26"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
@@ -2799,11 +2810,11 @@
     </row>
     <row r="18" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A18" s="25"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="70"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="73"/>
       <c r="G18" s="26"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
@@ -2833,11 +2844,11 @@
     </row>
     <row r="19" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A19" s="33"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="73"/>
       <c r="G19" s="39"/>
       <c r="H19" s="34"/>
       <c r="I19" s="34"/>
@@ -2867,11 +2878,11 @@
     </row>
     <row r="20" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A20" s="33"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="70"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="73"/>
       <c r="G20" s="39"/>
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
@@ -2901,11 +2912,11 @@
     </row>
     <row r="21" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A21" s="33"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="70"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="73"/>
       <c r="G21" s="39"/>
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
@@ -2935,11 +2946,11 @@
     </row>
     <row r="22" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A22" s="33"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="70"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="73"/>
       <c r="G22" s="39"/>
       <c r="H22" s="34"/>
       <c r="I22" s="34"/>
@@ -2969,11 +2980,11 @@
     </row>
     <row r="23" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A23" s="33"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="70"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="73"/>
       <c r="G23" s="39"/>
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
@@ -3003,11 +3014,11 @@
     </row>
     <row r="24" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A24" s="33"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="70"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="73"/>
       <c r="G24" s="39"/>
       <c r="H24" s="34"/>
       <c r="I24" s="34"/>
@@ -3037,11 +3048,11 @@
     </row>
     <row r="25" spans="1:32" s="32" customFormat="1" ht="15.75" thickBot="1">
       <c r="A25" s="40"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="73"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="70"/>
       <c r="G25" s="41"/>
       <c r="H25" s="42"/>
       <c r="I25" s="42"/>
@@ -3104,27 +3115,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3137,7 +3148,7 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
@@ -3299,15 +3310,15 @@
       <c r="A5" s="25">
         <v>1</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="70"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
@@ -3351,15 +3362,15 @@
       <c r="A6" s="25">
         <v>2</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="70"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
@@ -3403,15 +3414,15 @@
       <c r="A7" s="33">
         <v>3</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="70"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H7" s="34"/>
       <c r="I7" s="34"/>
@@ -3455,15 +3466,15 @@
       <c r="A8" s="33">
         <v>4</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H8" s="34"/>
       <c r="I8" s="34"/>
@@ -3507,29 +3518,29 @@
       <c r="A9" s="33">
         <v>5</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="70"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
-      <c r="M9" s="37" t="s">
-        <v>64</v>
+      <c r="M9" s="28" t="s">
+        <v>62</v>
       </c>
       <c r="N9" s="35"/>
       <c r="O9" s="35"/>
       <c r="P9" s="36"/>
-      <c r="Q9" s="37" t="s">
-        <v>50</v>
+      <c r="Q9" s="37">
+        <v>17</v>
       </c>
       <c r="R9" s="35"/>
       <c r="S9" s="37" t="s">
@@ -3559,13 +3570,13 @@
       <c r="A10" s="33">
         <v>6</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="70"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="39" t="s">
         <v>49</v>
       </c>
@@ -3575,7 +3586,7 @@
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
       <c r="M10" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N10" s="35"/>
       <c r="O10" s="35"/>
@@ -3609,11 +3620,11 @@
     </row>
     <row r="11" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A11" s="33"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="70"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="73"/>
       <c r="G11" s="39"/>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
@@ -3643,11 +3654,11 @@
     </row>
     <row r="12" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A12" s="33"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="70"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="39"/>
       <c r="H12" s="34"/>
       <c r="I12" s="34"/>
@@ -3677,11 +3688,11 @@
     </row>
     <row r="13" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A13" s="33"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="70"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="73"/>
       <c r="G13" s="39"/>
       <c r="H13" s="34"/>
       <c r="I13" s="34"/>
@@ -3711,11 +3722,11 @@
     </row>
     <row r="14" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A14" s="33"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="70"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="39"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
@@ -3745,11 +3756,11 @@
     </row>
     <row r="15" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A15" s="25"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="70"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="73"/>
       <c r="G15" s="26"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
@@ -3779,11 +3790,11 @@
     </row>
     <row r="16" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A16" s="25"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="70"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="73"/>
       <c r="G16" s="26"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
@@ -3813,11 +3824,11 @@
     </row>
     <row r="17" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A17" s="25"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="70"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="73"/>
       <c r="G17" s="26"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
@@ -3847,11 +3858,11 @@
     </row>
     <row r="18" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A18" s="25"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="70"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="73"/>
       <c r="G18" s="39"/>
       <c r="H18" s="34"/>
       <c r="I18" s="34"/>
@@ -3881,11 +3892,11 @@
     </row>
     <row r="19" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A19" s="33"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="73"/>
       <c r="G19" s="39"/>
       <c r="H19" s="34"/>
       <c r="I19" s="34"/>
@@ -3915,11 +3926,11 @@
     </row>
     <row r="20" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A20" s="33"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="70"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="73"/>
       <c r="G20" s="39"/>
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
@@ -3949,11 +3960,11 @@
     </row>
     <row r="21" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A21" s="33"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="70"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="73"/>
       <c r="G21" s="39"/>
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
@@ -3983,11 +3994,11 @@
     </row>
     <row r="22" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A22" s="33"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="70"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="73"/>
       <c r="G22" s="39"/>
       <c r="H22" s="34"/>
       <c r="I22" s="34"/>
@@ -4017,11 +4028,11 @@
     </row>
     <row r="23" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A23" s="33"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="70"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="73"/>
       <c r="G23" s="39"/>
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
@@ -4051,11 +4062,11 @@
     </row>
     <row r="24" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A24" s="33"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="70"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="73"/>
       <c r="G24" s="39"/>
       <c r="H24" s="34"/>
       <c r="I24" s="34"/>
@@ -4085,11 +4096,11 @@
     </row>
     <row r="25" spans="1:32" s="32" customFormat="1" ht="15.75" thickBot="1">
       <c r="A25" s="40"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="73"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="70"/>
       <c r="G25" s="41"/>
       <c r="H25" s="42"/>
       <c r="I25" s="42"/>
@@ -4152,15 +4163,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
@@ -4173,6 +4175,15 @@
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/report/テーブル一覧.xlsx
+++ b/report/テーブル一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="0" windowWidth="16455" windowHeight="10875"/>
+    <workbookView xWindow="4680" yWindow="0" windowWidth="16455" windowHeight="10875"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="2">
@@ -335,10 +335,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>delete</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -422,6 +418,17 @@
     <t>作成日時の型と長さを修正</t>
     <rPh sb="10" eb="12">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>delete→deleteFlag（制約のため）</t>
+    <rPh sb="18" eb="20">
+      <t>セイヤク</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -805,7 +812,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1008,6 +1015,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1017,14 +1033,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1333,9 +1343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
   <cols>
@@ -1484,7 +1492,7 @@
       <c r="H5" s="51"/>
       <c r="I5" s="52"/>
       <c r="J5" s="51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K5" s="51"/>
       <c r="L5" s="51"/>
@@ -1509,15 +1517,23 @@
       <c r="A6" s="55">
         <v>4</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="60"/>
+      <c r="B6" s="74">
+        <v>44708</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>39</v>
+      </c>
       <c r="D6" s="53"/>
       <c r="E6" s="53"/>
       <c r="F6" s="61"/>
-      <c r="G6" s="60"/>
+      <c r="G6" s="50" t="s">
+        <v>35</v>
+      </c>
       <c r="H6" s="53"/>
       <c r="I6" s="61"/>
-      <c r="J6" s="53"/>
+      <c r="J6" s="53" t="s">
+        <v>71</v>
+      </c>
       <c r="K6" s="53"/>
       <c r="L6" s="53"/>
       <c r="M6" s="53"/>
@@ -2316,13 +2332,13 @@
       <c r="A5" s="25">
         <v>1</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="73"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="70"/>
       <c r="G5" s="26" t="s">
         <v>17</v>
       </c>
@@ -2332,7 +2348,7 @@
       <c r="K5" s="27"/>
       <c r="L5" s="27"/>
       <c r="M5" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N5" s="29"/>
       <c r="O5" s="29"/>
@@ -2350,12 +2366,12 @@
       </c>
       <c r="V5" s="29"/>
       <c r="W5" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X5" s="29"/>
       <c r="Y5" s="29"/>
       <c r="Z5" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA5" s="29"/>
       <c r="AB5" s="29"/>
@@ -2368,13 +2384,13 @@
       <c r="A6" s="25">
         <v>2</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="73"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="70"/>
       <c r="G6" s="26" t="s">
         <v>20</v>
       </c>
@@ -2384,7 +2400,7 @@
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
       <c r="M6" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N6" s="29"/>
       <c r="O6" s="29"/>
@@ -2398,16 +2414,16 @@
       </c>
       <c r="T6" s="29"/>
       <c r="U6" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V6" s="29"/>
       <c r="W6" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X6" s="29"/>
       <c r="Y6" s="29"/>
       <c r="Z6" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA6" s="29"/>
       <c r="AB6" s="29"/>
@@ -2420,13 +2436,13 @@
       <c r="A7" s="33">
         <v>3</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="73"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="70"/>
       <c r="G7" s="26" t="s">
         <v>31</v>
       </c>
@@ -2436,7 +2452,7 @@
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
       <c r="M7" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N7" s="35"/>
       <c r="O7" s="35"/>
@@ -2450,16 +2466,16 @@
       </c>
       <c r="T7" s="35"/>
       <c r="U7" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V7" s="35"/>
       <c r="W7" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X7" s="35"/>
       <c r="Y7" s="35"/>
       <c r="Z7" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA7" s="35"/>
       <c r="AB7" s="35"/>
@@ -2470,11 +2486,11 @@
     </row>
     <row r="8" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A8" s="33"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="73"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="39"/>
       <c r="H8" s="34"/>
       <c r="I8" s="34"/>
@@ -2504,11 +2520,11 @@
     </row>
     <row r="9" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A9" s="33"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="73"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
       <c r="G9" s="39"/>
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
@@ -2538,11 +2554,11 @@
     </row>
     <row r="10" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A10" s="33"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="73"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="70"/>
       <c r="G10" s="39"/>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
@@ -2572,11 +2588,11 @@
     </row>
     <row r="11" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A11" s="33"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="73"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="70"/>
       <c r="G11" s="39"/>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
@@ -2606,11 +2622,11 @@
     </row>
     <row r="12" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A12" s="33"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="73"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="70"/>
       <c r="G12" s="39"/>
       <c r="H12" s="34"/>
       <c r="I12" s="34"/>
@@ -2640,11 +2656,11 @@
     </row>
     <row r="13" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A13" s="33"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="73"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="70"/>
       <c r="G13" s="39"/>
       <c r="H13" s="34"/>
       <c r="I13" s="34"/>
@@ -2674,11 +2690,11 @@
     </row>
     <row r="14" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A14" s="33"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="73"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="70"/>
       <c r="G14" s="39"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
@@ -2708,11 +2724,11 @@
     </row>
     <row r="15" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A15" s="25"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="73"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="70"/>
       <c r="G15" s="26"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
@@ -2742,11 +2758,11 @@
     </row>
     <row r="16" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A16" s="25"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="73"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="70"/>
       <c r="G16" s="26"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
@@ -2776,11 +2792,11 @@
     </row>
     <row r="17" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A17" s="25"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="73"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="70"/>
       <c r="G17" s="26"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
@@ -2810,11 +2826,11 @@
     </row>
     <row r="18" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A18" s="25"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="73"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="70"/>
       <c r="G18" s="26"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
@@ -2844,11 +2860,11 @@
     </row>
     <row r="19" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A19" s="33"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="73"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="70"/>
       <c r="G19" s="39"/>
       <c r="H19" s="34"/>
       <c r="I19" s="34"/>
@@ -2878,11 +2894,11 @@
     </row>
     <row r="20" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A20" s="33"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="73"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="70"/>
       <c r="G20" s="39"/>
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
@@ -2912,11 +2928,11 @@
     </row>
     <row r="21" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A21" s="33"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="73"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="70"/>
       <c r="G21" s="39"/>
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
@@ -2946,11 +2962,11 @@
     </row>
     <row r="22" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A22" s="33"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="73"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="70"/>
       <c r="G22" s="39"/>
       <c r="H22" s="34"/>
       <c r="I22" s="34"/>
@@ -2980,11 +2996,11 @@
     </row>
     <row r="23" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A23" s="33"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="73"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="70"/>
       <c r="G23" s="39"/>
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
@@ -3014,11 +3030,11 @@
     </row>
     <row r="24" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A24" s="33"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="73"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="70"/>
       <c r="G24" s="39"/>
       <c r="H24" s="34"/>
       <c r="I24" s="34"/>
@@ -3048,11 +3064,11 @@
     </row>
     <row r="25" spans="1:32" s="32" customFormat="1" ht="15.75" thickBot="1">
       <c r="A25" s="40"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="70"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="73"/>
       <c r="G25" s="41"/>
       <c r="H25" s="42"/>
       <c r="I25" s="42"/>
@@ -3115,27 +3131,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3148,7 +3164,7 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
@@ -3310,15 +3326,15 @@
       <c r="A5" s="25">
         <v>1</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="73"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="70"/>
       <c r="G5" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
@@ -3326,13 +3342,13 @@
       <c r="K5" s="27"/>
       <c r="L5" s="27"/>
       <c r="M5" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N5" s="29"/>
       <c r="O5" s="29"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R5" s="29"/>
       <c r="S5" s="28" t="s">
@@ -3344,12 +3360,12 @@
       </c>
       <c r="V5" s="29"/>
       <c r="W5" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X5" s="29"/>
       <c r="Y5" s="29"/>
       <c r="Z5" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA5" s="29"/>
       <c r="AB5" s="29"/>
@@ -3362,15 +3378,15 @@
       <c r="A6" s="25">
         <v>2</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="73"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="70"/>
       <c r="G6" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
@@ -3378,7 +3394,7 @@
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
       <c r="M6" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N6" s="29"/>
       <c r="O6" s="29"/>
@@ -3392,16 +3408,16 @@
       </c>
       <c r="T6" s="29"/>
       <c r="U6" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V6" s="29"/>
       <c r="W6" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X6" s="29"/>
       <c r="Y6" s="29"/>
       <c r="Z6" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA6" s="29"/>
       <c r="AB6" s="29"/>
@@ -3414,15 +3430,15 @@
       <c r="A7" s="33">
         <v>3</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="73"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="70"/>
       <c r="G7" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" s="34"/>
       <c r="I7" s="34"/>
@@ -3430,7 +3446,7 @@
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
       <c r="M7" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N7" s="35"/>
       <c r="O7" s="35"/>
@@ -3444,16 +3460,16 @@
       </c>
       <c r="T7" s="35"/>
       <c r="U7" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V7" s="35"/>
       <c r="W7" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X7" s="35"/>
       <c r="Y7" s="35"/>
       <c r="Z7" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA7" s="35"/>
       <c r="AB7" s="35"/>
@@ -3466,15 +3482,15 @@
       <c r="A8" s="33">
         <v>4</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="73"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H8" s="34"/>
       <c r="I8" s="34"/>
@@ -3482,7 +3498,7 @@
       <c r="K8" s="34"/>
       <c r="L8" s="34"/>
       <c r="M8" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N8" s="35"/>
       <c r="O8" s="35"/>
@@ -3492,20 +3508,20 @@
       </c>
       <c r="R8" s="35"/>
       <c r="S8" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T8" s="35"/>
       <c r="U8" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V8" s="35"/>
       <c r="W8" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X8" s="35"/>
       <c r="Y8" s="35"/>
       <c r="Z8" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA8" s="35"/>
       <c r="AB8" s="35"/>
@@ -3518,15 +3534,15 @@
       <c r="A9" s="33">
         <v>5</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="73"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
       <c r="G9" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
@@ -3534,7 +3550,7 @@
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
       <c r="M9" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N9" s="35"/>
       <c r="O9" s="35"/>
@@ -3544,20 +3560,20 @@
       </c>
       <c r="R9" s="35"/>
       <c r="S9" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T9" s="35"/>
       <c r="U9" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V9" s="35"/>
       <c r="W9" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X9" s="35"/>
       <c r="Y9" s="35"/>
       <c r="Z9" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA9" s="35"/>
       <c r="AB9" s="35"/>
@@ -3570,15 +3586,15 @@
       <c r="A10" s="33">
         <v>6</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="73"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="70"/>
       <c r="G10" s="39" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
@@ -3586,30 +3602,30 @@
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
       <c r="M10" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N10" s="35"/>
       <c r="O10" s="35"/>
       <c r="P10" s="36"/>
       <c r="Q10" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R10" s="35"/>
       <c r="S10" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T10" s="35"/>
       <c r="U10" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V10" s="35"/>
       <c r="W10" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X10" s="35"/>
       <c r="Y10" s="35"/>
       <c r="Z10" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA10" s="35"/>
       <c r="AB10" s="35"/>
@@ -3620,11 +3636,11 @@
     </row>
     <row r="11" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A11" s="33"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="73"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="70"/>
       <c r="G11" s="39"/>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
@@ -3654,11 +3670,11 @@
     </row>
     <row r="12" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A12" s="33"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="73"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="70"/>
       <c r="G12" s="39"/>
       <c r="H12" s="34"/>
       <c r="I12" s="34"/>
@@ -3688,11 +3704,11 @@
     </row>
     <row r="13" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A13" s="33"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="73"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="70"/>
       <c r="G13" s="39"/>
       <c r="H13" s="34"/>
       <c r="I13" s="34"/>
@@ -3722,11 +3738,11 @@
     </row>
     <row r="14" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A14" s="33"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="73"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="70"/>
       <c r="G14" s="39"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
@@ -3756,11 +3772,11 @@
     </row>
     <row r="15" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A15" s="25"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="73"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="70"/>
       <c r="G15" s="26"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
@@ -3790,11 +3806,11 @@
     </row>
     <row r="16" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A16" s="25"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="73"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="70"/>
       <c r="G16" s="26"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
@@ -3824,11 +3840,11 @@
     </row>
     <row r="17" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A17" s="25"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="73"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="70"/>
       <c r="G17" s="26"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
@@ -3858,11 +3874,11 @@
     </row>
     <row r="18" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A18" s="25"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="73"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="70"/>
       <c r="G18" s="39"/>
       <c r="H18" s="34"/>
       <c r="I18" s="34"/>
@@ -3892,11 +3908,11 @@
     </row>
     <row r="19" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A19" s="33"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="73"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="70"/>
       <c r="G19" s="39"/>
       <c r="H19" s="34"/>
       <c r="I19" s="34"/>
@@ -3926,11 +3942,11 @@
     </row>
     <row r="20" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A20" s="33"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="73"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="70"/>
       <c r="G20" s="39"/>
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
@@ -3960,11 +3976,11 @@
     </row>
     <row r="21" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A21" s="33"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="73"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="70"/>
       <c r="G21" s="39"/>
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
@@ -3994,11 +4010,11 @@
     </row>
     <row r="22" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A22" s="33"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="73"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="70"/>
       <c r="G22" s="39"/>
       <c r="H22" s="34"/>
       <c r="I22" s="34"/>
@@ -4028,11 +4044,11 @@
     </row>
     <row r="23" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A23" s="33"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="73"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="70"/>
       <c r="G23" s="39"/>
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
@@ -4062,11 +4078,11 @@
     </row>
     <row r="24" spans="1:32" s="32" customFormat="1" ht="15">
       <c r="A24" s="33"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="73"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="70"/>
       <c r="G24" s="39"/>
       <c r="H24" s="34"/>
       <c r="I24" s="34"/>
@@ -4096,11 +4112,11 @@
     </row>
     <row r="25" spans="1:32" s="32" customFormat="1" ht="15.75" thickBot="1">
       <c r="A25" s="40"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="70"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="73"/>
       <c r="G25" s="41"/>
       <c r="H25" s="42"/>
       <c r="I25" s="42"/>
@@ -4163,6 +4179,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
@@ -4175,15 +4200,6 @@
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
